--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4680" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="915" yWindow="195" windowWidth="24810" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>reactor</t>
   </si>
@@ -104,6 +104,21 @@
   </si>
   <si>
     <t>ipb3-he-q-200-250-275-300-325-350-400.csv</t>
+  </si>
+  <si>
+    <t>Double_pulse_100-1200ns-300v_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipbx-h2-100-1200ns_double pulse-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>2017-05-20-V189_B43_H2</t>
+  </si>
+  <si>
+    <t>052117</t>
+  </si>
+  <si>
+    <t>dualNarrow-1200ns-300v</t>
   </si>
 </sst>
 </file>
@@ -951,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1125,6 +1140,56 @@
       </c>
       <c r="P3" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>189</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>reactor</t>
   </si>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t>dualNarrow-1200ns-300v</t>
+  </si>
+  <si>
+    <t>coreL</t>
+  </si>
+  <si>
+    <t>052317</t>
+  </si>
+  <si>
+    <t>IPB3_Core_Cal_6000ns_250-350C-40v_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-after600c</t>
+  </si>
+  <si>
+    <t>IPB3_100ns300v3_day-01.csv</t>
+  </si>
+  <si>
+    <t>052517</t>
+  </si>
+  <si>
+    <t>100ns-300ns</t>
   </si>
 </sst>
 </file>
@@ -966,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -983,16 +1004,17 @@
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,39 +1046,42 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1068,45 +1093,48 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>189</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1118,31 +1146,34 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>189</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1159,10 +1190,10 @@
         <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1174,22 +1205,125 @@
         <v>15</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.9</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>189</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>189</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>189</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="195" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="840" yWindow="-195" windowWidth="24810" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>reactor</t>
   </si>
@@ -130,16 +130,31 @@
     <t>IPB3_Core_Cal_6000ns_250-350C-40v_day-01.csv</t>
   </si>
   <si>
-    <t>6000ns-40v-after600c</t>
-  </si>
-  <si>
     <t>IPB3_100ns300v3_day-01.csv</t>
   </si>
   <si>
     <t>052517</t>
   </si>
   <si>
-    <t>100ns-300ns</t>
+    <t>IPB3_Qkcal_40v_6000ns_250-350C_H2_5-26-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>052717</t>
+  </si>
+  <si>
+    <t>6000ns-40v-after6000c-probe1500v</t>
+  </si>
+  <si>
+    <t>6000ns-40v-after600c-probe150v</t>
+  </si>
+  <si>
+    <t>100ns-300v</t>
+  </si>
+  <si>
+    <t>052817</t>
+  </si>
+  <si>
+    <t>100ns-300v-527_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -987,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1226,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1273,10 +1288,10 @@
         <v>16</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1284,10 +1299,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
@@ -1323,7 +1338,107 @@
         <v>16</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>189</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>189</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>reactor</t>
   </si>
@@ -155,6 +155,27 @@
   </si>
   <si>
     <t>100ns-300v-527_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-calibration-529_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipb34-6000ns-40v-calibration.csv</t>
+  </si>
+  <si>
+    <t>053017</t>
+  </si>
+  <si>
+    <t>ipb4-h2-100ns-300v-275-350c.csv</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_40v_6000ns_250-350C_H2_roh.csv</t>
+  </si>
+  <si>
+    <t>ipb4-h2-100ns-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-googlecalibration</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1251,6 +1272,9 @@
       <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1291,7 +1315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1301,6 +1325,9 @@
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1341,7 +1368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1350,6 +1377,9 @@
       </c>
       <c r="C7" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>40</v>
@@ -1401,6 +1431,9 @@
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1439,9 +1472,63 @@
       </c>
       <c r="Q8" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O9" s="2">
+        <v>189</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>reactor</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>6000ns-40v-googlecalibration</t>
+  </si>
+  <si>
+    <t>IPB3_FixedNarrow_300V_250-350C_day-01.csv</t>
+  </si>
+  <si>
+    <t>060317</t>
+  </si>
+  <si>
+    <t>ipb3-43-6000ns-40v-trimed.csv</t>
+  </si>
+  <si>
+    <t>060617</t>
+  </si>
+  <si>
+    <t>300v-DualNarrowPulse</t>
+  </si>
+  <si>
+    <t>300v-SingleNarrowPulse</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1494,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1525,6 +1543,106 @@
       </c>
       <c r="Q9" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O10" s="2">
+        <v>189</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O11" s="2">
+        <v>189</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-195" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="5160" yWindow="300" windowWidth="24600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>reactor</t>
   </si>
@@ -194,6 +194,87 @@
   </si>
   <si>
     <t>300v-SingleNarrowPulse</t>
+  </si>
+  <si>
+    <t>IPB3_CoreQPow_vs_PW-Freq_COP_test_50W_250-275C_H2_day-01.csv</t>
+  </si>
+  <si>
+    <t>062017</t>
+  </si>
+  <si>
+    <t>8000ns-100ns</t>
+  </si>
+  <si>
+    <t>IPBx_CoreQPow_vs_PW_8000-80ns_50W_250-275C_H2.csv</t>
+  </si>
+  <si>
+    <t>10000ns-30v-temp-628_day-01.csv</t>
+  </si>
+  <si>
+    <t>062917</t>
+  </si>
+  <si>
+    <t>062117</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp620_day-01.csv</t>
+  </si>
+  <si>
+    <t>062417</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp-624_day-01.csv</t>
+  </si>
+  <si>
+    <t>10000ns-30v</t>
+  </si>
+  <si>
+    <t>IPB1_10000ns_30v-275-325.csv</t>
+  </si>
+  <si>
+    <t>IPB1_300ns_200v-275-325.csv</t>
+  </si>
+  <si>
+    <t>8000ns-623_day-01.csv</t>
+  </si>
+  <si>
+    <t>91ns-300v-629_day-01.csv</t>
+  </si>
+  <si>
+    <t>91ns-300v</t>
+  </si>
+  <si>
+    <t>063017</t>
+  </si>
+  <si>
+    <t>IPB1_91ns_300v-275-325.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-temp-630_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB1_6000ns_40v-275-325.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v</t>
+  </si>
+  <si>
+    <t>070117</t>
+  </si>
+  <si>
+    <t>070417</t>
+  </si>
+  <si>
+    <t>070517</t>
+  </si>
+  <si>
+    <t>10000ns-80ns-73_day-01.csv</t>
+  </si>
+  <si>
+    <t>10000ns-80ns-74_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-80ns</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D22" sqref="D22:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1645,6 +1726,477 @@
         <v>58</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>189</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O13" s="2">
+        <v>189</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O14" s="2">
+        <v>189</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2">
+        <v>59</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O15" s="2">
+        <v>189</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2">
+        <v>67</v>
+      </c>
+      <c r="G16" s="2">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O16" s="2">
+        <v>189</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2">
+        <v>69</v>
+      </c>
+      <c r="G17" s="2">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O17" s="2">
+        <v>189</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2">
+        <v>71</v>
+      </c>
+      <c r="G18" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O18" s="2">
+        <v>189</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="2">
+        <v>75</v>
+      </c>
+      <c r="G19" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O19" s="2">
+        <v>189</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O20" s="2">
+        <v>189</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="300" windowWidth="24600" windowHeight="14340"/>
+    <workbookView xWindow="1320" yWindow="195" windowWidth="24600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
   <si>
     <t>reactor</t>
   </si>
@@ -275,6 +275,36 @@
   </si>
   <si>
     <t>10us-80ns</t>
+  </si>
+  <si>
+    <t>100ns-325v-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>071717</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp</t>
+  </si>
+  <si>
+    <t>10us-35v-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-30v-temp</t>
+  </si>
+  <si>
+    <t>071817</t>
+  </si>
+  <si>
+    <t>100ns-300v-720_day-01.cs</t>
+  </si>
+  <si>
+    <t>2017-07-19-v1812-43b</t>
+  </si>
+  <si>
+    <t>072117</t>
+  </si>
+  <si>
+    <t>10us-35v-temp</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D25"/>
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2197,6 +2227,206 @@
         <v>86</v>
       </c>
     </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2">
+        <v>97</v>
+      </c>
+      <c r="G21" s="2">
+        <v>98</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O21" s="2">
+        <v>189</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="2">
+        <v>99</v>
+      </c>
+      <c r="G22" s="2">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O22" s="2">
+        <v>189</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1811</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1811</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t>reactor</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>10us-35v-temp</t>
+  </si>
+  <si>
+    <t>080117</t>
+  </si>
+  <si>
+    <t>10us-80ns-81_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2427,6 +2433,56 @@
         <v>96</v>
       </c>
     </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2">
+        <v>27</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1811</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/matlab/logDataProcess/ipb3-43.xlsx
+++ b/matlab/logDataProcess/ipb3-43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
   <si>
     <t>reactor</t>
   </si>
@@ -311,13 +311,16 @@
   </si>
   <si>
     <t>10us-80ns-81_day-01.csv</t>
+  </si>
+  <si>
+    <t>\ROH_Pulse seq 5-20-17\IPB3_SEQ_PW_10us-80ns_50W_275-325C_H2_8-5-17.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +465,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -808,11 +818,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1161,7 +1173,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1181,7 @@
     <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2433,53 +2445,56 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>26</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>27</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="4">
         <v>16.25</v>
       </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
         <v>0.9</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="4">
         <v>2.11</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="4">
         <v>1811</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
